--- a/templates/250410设备.xlsx
+++ b/templates/250410设备.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="333">
   <si>
     <t>第2行</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1011,6 +1011,18 @@
   </si>
   <si>
     <t>N=5.0kW，直径3m</t>
+  </si>
+  <si>
+    <t>垃圾小车</t>
+  </si>
+  <si>
+    <t>V=0.5m3</t>
+  </si>
+  <si>
+    <t>辆</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1371,7 @@
   <dimension ref="A1:E290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1602,7 +1614,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1616,7 +1628,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1630,7 +1642,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1644,7 +1656,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1658,7 +1670,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1672,57 +1684,69 @@
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D22" t="s">
+        <v>331</v>
+      </c>
+      <c r="E22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>

--- a/templates/250410设备.xlsx
+++ b/templates/250410设备.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="342">
   <si>
     <t>第2行</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1022,7 +1022,38 @@
     <t>辆</t>
   </si>
   <si>
-    <t>2</t>
+    <t>浮渣框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600x600，h=500,网眼大小φ10</t>
+  </si>
+  <si>
+    <t>溜槽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直径300mm，L≈22000mm，材质304L</t>
+  </si>
+  <si>
+    <t>H＝300mm，L＝15300，δ=3</t>
+  </si>
+  <si>
+    <t>不锈钢集水槽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢出水堰板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> L×H=7300（7400）×560mm，δ＝5mm</t>
+  </si>
+  <si>
+    <t>移动膜罩系统</t>
+  </si>
+  <si>
+    <t>m2</t>
   </si>
 </sst>
 </file>
@@ -1368,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:D290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1381,7 +1412,7 @@
     <col min="3" max="3" width="51.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>289</v>
       </c>
@@ -1395,7 +1426,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +1440,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1422,11 +1453,8 @@
       <c r="D3" t="s">
         <v>298</v>
       </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1439,11 +1467,8 @@
       <c r="D4" t="s">
         <v>295</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1456,11 +1481,8 @@
       <c r="D5" t="s">
         <v>298</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +1496,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1488,7 +1510,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1502,7 +1524,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1516,7 +1538,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1530,7 +1552,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1544,7 +1566,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1558,7 +1580,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1572,7 +1594,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1586,7 +1608,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1600,7 +1622,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1614,7 +1636,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1628,7 +1650,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1642,7 +1664,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1656,7 +1678,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1670,7 +1692,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1684,7 +1706,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1697,56 +1719,95 @@
       <c r="D22" t="s">
         <v>331</v>
       </c>
-      <c r="E22" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>332</v>
+      </c>
+      <c r="C23" t="s">
+        <v>333</v>
+      </c>
+      <c r="D23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>337</v>
+      </c>
+      <c r="C26" t="s">
+        <v>339</v>
+      </c>
+      <c r="D26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>340</v>
+      </c>
+      <c r="D27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>

--- a/templates/250410设备.xlsx
+++ b/templates/250410设备.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="350">
   <si>
     <t>第2行</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1054,6 +1054,30 @@
   </si>
   <si>
     <t>m2</t>
+  </si>
+  <si>
+    <t>臭氧分解破坏器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">尾气破坏能力60kg/h，满足7.5万m3/d供水规模要求 </t>
+  </si>
+  <si>
+    <t>臭氧扩散器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">满足10万m3/d水量规模，1.5mg/L加注量 </t>
+  </si>
+  <si>
+    <t>臭氧投加设备</t>
+  </si>
+  <si>
+    <t xml:space="preserve">满足3.75万m3/d水量规模，0.5～1.5mg/L加注量，可调 </t>
+  </si>
+  <si>
+    <t>水中溶解臭氧浓度分析仪</t>
+  </si>
+  <si>
+    <t>除雾器</t>
   </si>
 </sst>
 </file>
@@ -1402,7 +1426,7 @@
   <dimension ref="A1:D290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1791,25 +1815,64 @@
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C28" t="s">
+        <v>343</v>
+      </c>
+      <c r="D28" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B29" t="s">
+        <v>344</v>
+      </c>
+      <c r="C29" t="s">
+        <v>345</v>
+      </c>
+      <c r="D29" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B30" t="s">
+        <v>346</v>
+      </c>
+      <c r="C30" t="s">
+        <v>347</v>
+      </c>
+      <c r="D30" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B31" t="s">
+        <v>348</v>
+      </c>
+      <c r="D31" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>349</v>
+      </c>
+      <c r="D32" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
